--- a/docs/Zeiterfassung.xlsx
+++ b/docs/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\GitReps\CS\ihk-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2E6BEB-6139-4BA1-9A1A-0F0CBB62E17F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA70EAC-5B55-44E6-8A6B-D382BC33FB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31380" yWindow="330" windowWidth="26340" windowHeight="15990" xr2:uid="{F559E699-4042-459E-B539-BFAAE75BC39E}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Wo?</t>
   </si>
   <si>
-    <t>Länge?</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
@@ -163,6 +160,12 @@
   </si>
   <si>
     <t>Fehlerbehebung (Logikfehler, Bugs, etc.)</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Ist</t>
   </si>
 </sst>
 </file>
@@ -223,47 +226,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -278,7 +244,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -286,49 +254,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,412 +691,1119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A161589C-D44A-4172-9713-FAC3C656006F}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="14">
+        <v>70</v>
+      </c>
+      <c r="C3" s="26">
+        <f>SUM(C18,C12,C5,C23,C28,C33,C38)</f>
+        <v>77</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18">
+        <f>SUM(C6:C10)</f>
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="15">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <f>SUM(B18,B12,B5,B23,B28,B33,B38)</f>
-        <v>77</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="23">
+        <f>SUM(C13:C16)</f>
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
-        <f>SUM(B6:B10)</f>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="24">
+        <f>SUM(C20:C22)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="23">
+        <f>SUM(C24:C26)</f>
+        <v>10</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
+        <f>SUM(C29:C31)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="D28" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="18">
+        <f>SUM(C34:C36)</f>
+        <v>11</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="15">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="15">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="18">
+        <f>SUM(C39:C44)</f>
+        <v>21</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="15">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="15">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="15">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="15">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="16">
-        <f>SUM(B13:B16)</f>
-        <v>11</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="11">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4">
-        <f>SUM(B20:B22)</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="17">
-        <f>SUM(B24:B26)</f>
-        <v>10</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="12">
-        <f>SUM(B29:B31)</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="12">
-        <f>SUM(B34:B36)</f>
-        <v>11</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="11">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="11">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="12">
-        <f>SUM(B39:B44)</f>
-        <v>21</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="11">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="11">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="11">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="11">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="11">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
